--- a/data/trans_bre/P1401-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1401-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4084429178208558</v>
+        <v>0.4524180292401507</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7687202910613512</v>
+        <v>-0.8453099654715421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.048064399410732</v>
+        <v>-1.892948148041034</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1084307918850974</v>
+        <v>0.2575154605218271</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5816530559458725</v>
+        <v>-0.5795474465541007</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5893873894200846</v>
+        <v>-0.5629207022248049</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.724000478577524</v>
+        <v>2.603055676213746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9265491354614621</v>
+        <v>0.9070411872872559</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9251552368929649</v>
+        <v>1.132090225292366</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6.61649532205595</v>
+        <v>6.295026070175249</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.452771513480274</v>
+        <v>1.516263492102002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7204577257921777</v>
+        <v>0.8807488293929022</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.629622595076222</v>
+        <v>-0.6873911954198542</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7521075109820045</v>
+        <v>0.7268684139694073</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8476236859697305</v>
+        <v>-0.9213096463983448</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3293560356415776</v>
+        <v>-0.3254424634907794</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4564171647572116</v>
+        <v>0.5339206826429427</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3098042446174629</v>
+        <v>-0.3324461258792496</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.104906475485662</v>
+        <v>2.031414869290265</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.993953928293578</v>
+        <v>2.982921233359856</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.334559391896425</v>
+        <v>1.359356603841646</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.52537496630487</v>
+        <v>2.34626351433812</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>10.27824189636343</v>
+        <v>10.6948800422881</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8429467988771759</v>
+        <v>0.8228863012254956</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>1.501409360696458</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1328881318205858</v>
+        <v>0.1328881318205865</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.07054867755871028</v>
@@ -791,7 +791,7 @@
         <v>1.399042418948648</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06878466341406304</v>
+        <v>0.06878466341406342</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.211427770478542</v>
+        <v>-1.092377615587645</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1878848710422338</v>
+        <v>0.2306964286281455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8680997591641111</v>
+        <v>-0.8374949224873366</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.6248613127356049</v>
+        <v>-0.5981260125756263</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02029762102254589</v>
+        <v>0.01382466105346712</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3692058761580196</v>
+        <v>-0.3430085181977475</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8714447611137096</v>
+        <v>0.9582020882800243</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.049649325824112</v>
+        <v>3.124924792666426</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.157051995678288</v>
+        <v>1.110008741577402</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.968832242272426</v>
+        <v>1.145751106964088</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.818373064892429</v>
+        <v>4.544045012321782</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8641383911801326</v>
+        <v>0.7540775110746574</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1007993002071122</v>
+        <v>0.1133217827475518</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5998853698852854</v>
+        <v>0.6542446716601751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.018248782361027</v>
+        <v>-0.9490080810203031</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3547401593560772</v>
+        <v>-0.1218239845614766</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1377143629839303</v>
+        <v>0.2506668801931807</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3204487563939677</v>
+        <v>-0.3112530277246217</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.285499404271231</v>
+        <v>3.325351901706552</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.13874612196283</v>
+        <v>4.127406459122762</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.373613482526601</v>
+        <v>1.47447178841345</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11.08867936681549</v>
+        <v>13.31936678111678</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13.38127621184307</v>
+        <v>17.53660894943209</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8803561634303465</v>
+        <v>0.9167207945035215</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1640023650098367</v>
+        <v>0.233843584241628</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5557600603627493</v>
+        <v>0.5718673055356872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.477870499304324</v>
+        <v>-0.4131136282031803</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1002607407145927</v>
+        <v>0.1598275555697571</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.444459897993673</v>
+        <v>0.490906603151028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1864075991914211</v>
+        <v>-0.1690936502120465</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.448595796081892</v>
+        <v>1.481597376284314</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.773379750501702</v>
+        <v>1.819631539034412</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7250495084767647</v>
+        <v>0.6587389073179869</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.591819651902901</v>
+        <v>1.725594958028783</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.643544998763004</v>
+        <v>2.750385489117933</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4035105482677747</v>
+        <v>0.3745622774905055</v>
       </c>
     </row>
     <row r="19">
